--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\RMI\Nevada\NV_model\InputData\trans\MPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF76B87-210D-471A-9081-28FC2999F45B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="37" activeTab="40" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="23955" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -104,18 +103,7 @@
     <definedName name="max_biodsl">'Max Biofuel Blends'!$A$3</definedName>
     <definedName name="max_biogas">'Max Biofuel Blends'!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -353,7 +341,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,7 +387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,12 +397,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +467,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -500,18 +482,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Table title" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,23 +583,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -654,23 +618,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -846,10 +793,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1269,8 +1216,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B20" r:id="rId1"/>
+    <hyperlink ref="B26" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1278,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2507,7 +2454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2522,7 +2469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3751,7 +3698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4980,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6244,7 +6191,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7508,7 +7455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8772,7 +8719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10001,7 +9948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11230,7 +11177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -11245,12 +11192,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -11424,125 +11369,125 @@
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" t="e">
-        <f>TREND($A$7:$B$7,$A$6:$B$6,F10:AK10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" t="e">
-        <f t="shared" ref="F11:Y11" si="0">TREND($A$7:$B$7,$A$6:$B$6,G10:AL10)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H11" t="e">
+      <c r="F11">
+        <f t="shared" ref="F11:Y11" si="0">TREND($A$7:$B$7,$A$6:$B$6,F10:AK10)</f>
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I11" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J11" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O11" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P11" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q11" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R11" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S11" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T11" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U11" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V11" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W11" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X11" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y11" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z11" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z11">
         <f>Y11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA11" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA11">
         <f t="shared" ref="AA11:AI11" si="1">Z11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB11" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB11">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC11" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC11">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD11" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE11" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE11">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF11" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF11">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG11" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG11">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH11" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH11">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI11" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI11">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -11562,7 +11507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12791,7 +12736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14020,7 +13965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15284,7 +15229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16548,7 +16493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -17812,7 +17757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -19041,7 +18986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -20270,7 +20215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -20285,7 +20230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21514,7 +21459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -22743,7 +22688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -22758,7 +22703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -24022,7 +23967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25286,7 +25231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -26550,7 +26495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -27779,7 +27724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -29008,7 +28953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -29023,7 +28968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -30219,7 +30164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -31415,1239 +31360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AI11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1">
-        <v>2017</v>
-      </c>
-      <c r="C1">
-        <v>2018</v>
-      </c>
-      <c r="D1">
-        <v>2019</v>
-      </c>
-      <c r="E1">
-        <v>2020</v>
-      </c>
-      <c r="F1">
-        <v>2021</v>
-      </c>
-      <c r="G1">
-        <v>2022</v>
-      </c>
-      <c r="H1">
-        <v>2023</v>
-      </c>
-      <c r="I1">
-        <v>2024</v>
-      </c>
-      <c r="J1">
-        <v>2025</v>
-      </c>
-      <c r="K1">
-        <v>2026</v>
-      </c>
-      <c r="L1">
-        <v>2027</v>
-      </c>
-      <c r="M1">
-        <v>2028</v>
-      </c>
-      <c r="N1">
-        <v>2029</v>
-      </c>
-      <c r="O1">
-        <v>2030</v>
-      </c>
-      <c r="P1">
-        <v>2031</v>
-      </c>
-      <c r="Q1">
-        <v>2032</v>
-      </c>
-      <c r="R1">
-        <v>2033</v>
-      </c>
-      <c r="S1">
-        <v>2034</v>
-      </c>
-      <c r="T1">
-        <v>2035</v>
-      </c>
-      <c r="U1">
-        <v>2036</v>
-      </c>
-      <c r="V1">
-        <v>2037</v>
-      </c>
-      <c r="W1">
-        <v>2038</v>
-      </c>
-      <c r="X1">
-        <v>2039</v>
-      </c>
-      <c r="Y1">
-        <v>2040</v>
-      </c>
-      <c r="Z1">
-        <v>2041</v>
-      </c>
-      <c r="AA1">
-        <v>2042</v>
-      </c>
-      <c r="AB1">
-        <v>2043</v>
-      </c>
-      <c r="AC1">
-        <v>2044</v>
-      </c>
-      <c r="AD1">
-        <v>2045</v>
-      </c>
-      <c r="AE1">
-        <v>2046</v>
-      </c>
-      <c r="AF1">
-        <v>2047</v>
-      </c>
-      <c r="AG1">
-        <v>2048</v>
-      </c>
-      <c r="AH1">
-        <v>2049</v>
-      </c>
-      <c r="AI1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <f>'Max Biofuel Blends'!B$11</f>
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f>'Max Biofuel Blends'!C$11</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f>'Max Biofuel Blends'!D$11</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>'Max Biofuel Blends'!E$11</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="10" t="e">
-        <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" s="10" t="e">
-        <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" s="10" t="e">
-        <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" s="10" t="e">
-        <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" s="10" t="e">
-        <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" s="10" t="e">
-        <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" s="10" t="e">
-        <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" s="10" t="e">
-        <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" s="10" t="e">
-        <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" s="10" t="e">
-        <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P6" s="10" t="e">
-        <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q6" s="10" t="e">
-        <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R6" s="10" t="e">
-        <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S6" s="10" t="e">
-        <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T6" s="10" t="e">
-        <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U6" s="10" t="e">
-        <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V6" s="10" t="e">
-        <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W6" s="10" t="e">
-        <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X6" s="10" t="e">
-        <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y6" s="10" t="e">
-        <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z6" s="10" t="e">
-        <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA6" s="10" t="e">
-        <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB6" s="10" t="e">
-        <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC6" s="10" t="e">
-        <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD6" s="10" t="e">
-        <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE6" s="10" t="e">
-        <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF6" s="10" t="e">
-        <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG6" s="10" t="e">
-        <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH6" s="10" t="e">
-        <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI6" s="10" t="e">
-        <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -32986,106 +31699,106 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -33200,106 +31913,140 @@
         <v>6</v>
       </c>
       <c r="B6">
+        <f>'Max Biofuel Blends'!B$11</f>
         <v>0</v>
       </c>
       <c r="C6">
+        <f>'Max Biofuel Blends'!C$11</f>
         <v>0</v>
       </c>
       <c r="D6">
+        <f>'Max Biofuel Blends'!D$11</f>
         <v>0</v>
       </c>
       <c r="E6">
+        <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!F$11</f>
+        <v>9.9999999999980105E-3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!G$11</f>
+        <v>1.9999999999996021E-2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!H$11</f>
+        <v>2.9999999999997584E-2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!I$11</f>
+        <v>3.9999999999999147E-2</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!J$11</f>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!K$11</f>
+        <v>5.9999999999998721E-2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!L$11</f>
+        <v>6.9999999999996732E-2</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!M$11</f>
+        <v>7.9999999999998295E-2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!N$11</f>
+        <v>8.9999999999996305E-2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!O$11</f>
+        <v>9.9999999999997868E-2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!P$11</f>
+        <v>0.10999999999999943</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Q$11</f>
+        <v>0.11999999999999744</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!R$11</f>
+        <v>0.12999999999999901</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!S$11</f>
+        <v>0.13999999999999702</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!T$11</f>
+        <v>0.14999999999999858</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!U$11</f>
+        <v>0.15999999999999659</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!V$11</f>
+        <v>0.16999999999999815</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!W$11</f>
+        <v>0.17999999999999616</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!X$11</f>
+        <v>0.18999999999999773</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Y$11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!Z$11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AA$11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AB$11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AC$11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AD$11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AE$11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AF$11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AG$11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AH$11</f>
+        <v>0.19999999999999929</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <f>'Max Biofuel Blends'!AI$11</f>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -33307,6 +32054,1202 @@
         <v>8</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AI11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1">
+        <v>2017</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+      <c r="F1">
+        <v>2021</v>
+      </c>
+      <c r="G1">
+        <v>2022</v>
+      </c>
+      <c r="H1">
+        <v>2023</v>
+      </c>
+      <c r="I1">
+        <v>2024</v>
+      </c>
+      <c r="J1">
+        <v>2025</v>
+      </c>
+      <c r="K1">
+        <v>2026</v>
+      </c>
+      <c r="L1">
+        <v>2027</v>
+      </c>
+      <c r="M1">
+        <v>2028</v>
+      </c>
+      <c r="N1">
+        <v>2029</v>
+      </c>
+      <c r="O1">
+        <v>2030</v>
+      </c>
+      <c r="P1">
+        <v>2031</v>
+      </c>
+      <c r="Q1">
+        <v>2032</v>
+      </c>
+      <c r="R1">
+        <v>2033</v>
+      </c>
+      <c r="S1">
+        <v>2034</v>
+      </c>
+      <c r="T1">
+        <v>2035</v>
+      </c>
+      <c r="U1">
+        <v>2036</v>
+      </c>
+      <c r="V1">
+        <v>2037</v>
+      </c>
+      <c r="W1">
+        <v>2038</v>
+      </c>
+      <c r="X1">
+        <v>2039</v>
+      </c>
+      <c r="Y1">
+        <v>2040</v>
+      </c>
+      <c r="Z1">
+        <v>2041</v>
+      </c>
+      <c r="AA1">
+        <v>2042</v>
+      </c>
+      <c r="AB1">
+        <v>2043</v>
+      </c>
+      <c r="AC1">
+        <v>2044</v>
+      </c>
+      <c r="AD1">
+        <v>2045</v>
+      </c>
+      <c r="AE1">
+        <v>2046</v>
+      </c>
+      <c r="AF1">
+        <v>2047</v>
+      </c>
+      <c r="AG1">
+        <v>2048</v>
+      </c>
+      <c r="AH1">
+        <v>2049</v>
+      </c>
+      <c r="AI1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <f>'Max Biofuel Blends'!B$11</f>
         <v>0</v>
       </c>
@@ -33322,125 +33265,125 @@
         <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
-      <c r="F7" t="e">
+      <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T7" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U7" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V7" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W7" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X7" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -33877,7 +33820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -35106,7 +35049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -36302,13 +36245,13 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -36317,7 +36260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -37513,7 +37456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -38709,7 +38652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -39277,125 +39220,125 @@
         <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
-      <c r="F6" t="e">
+      <c r="F6">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" t="e">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G6">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H6">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I6">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J6">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K6">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L6">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M6">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N6">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O6">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P6" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q6" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R6" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R6">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S6" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S6">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T6" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T6">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U6" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U6">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V6" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V6">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W6" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W6">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X6" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X6">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y6" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y6">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -39939,7 +39882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -40614,125 +40557,125 @@
         <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
-      <c r="F7" t="e">
+      <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T7" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U7" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V7" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W7" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X7" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -41169,7 +41112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -42365,7 +42308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -42380,7 +42323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -43576,7 +43519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -44772,7 +44715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -46001,7 +45944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -46569,125 +46512,125 @@
         <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
-      <c r="F6" t="e">
+      <c r="F6">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" t="e">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G6">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H6">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I6">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J6">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K6">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L6">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M6">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N6">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O6">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P6" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q6" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R6" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R6">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S6" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S6">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T6" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T6">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U6" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U6">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V6" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V6">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W6" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W6">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X6" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X6">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y6" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y6">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -47231,7 +47174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -47906,125 +47849,125 @@
         <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
-      <c r="F7" t="e">
+      <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T7" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U7" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V7" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W7" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X7" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -48461,7 +48404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -49657,7 +49600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -49672,7 +49615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -50868,7 +50811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -52064,7 +52007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -52632,125 +52575,125 @@
         <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
-      <c r="F6" t="e">
+      <c r="F6">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" t="e">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G6">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H6">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I6">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J6">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K6">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L6">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M6">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N6">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O6">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P6" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q6" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R6" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R6">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S6" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S6">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T6" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T6">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U6" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U6">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V6" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V6">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W6" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W6">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X6" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X6">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y6" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y6">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -53294,7 +53237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -53969,125 +53912,125 @@
         <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
-      <c r="F7" t="e">
+      <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T7" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U7" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V7" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W7" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X7" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -54524,7 +54467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -55720,7 +55663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -55735,7 +55678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -56999,7 +56942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -58195,7 +58138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -59391,7 +59334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -59959,125 +59902,125 @@
         <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
-      <c r="F6" t="e">
+      <c r="F6">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" t="e">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G6">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H6">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I6">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J6">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K6">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L6">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M6">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N6">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O6">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P6" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q6" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R6" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R6">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S6" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S6">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T6" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T6">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U6" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U6">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V6" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V6">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W6" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W6">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X6" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X6">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y6" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y6">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -60621,7 +60564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -61296,125 +61239,125 @@
         <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
-      <c r="F7" t="e">
+      <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T7" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U7" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V7" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W7" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X7" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -61851,7 +61794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -63047,7 +62990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -63062,7 +63005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -64258,7 +64201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -65454,7 +65397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -66022,125 +65965,125 @@
         <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
-      <c r="F6" t="e">
+      <c r="F6">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" t="e">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G6">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H6" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H6">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I6" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I6">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J6" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J6">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K6">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L6">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M6">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N6">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O6">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P6" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P6">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q6" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q6">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R6" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R6">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S6" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S6">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T6" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T6">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U6" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U6">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V6" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V6">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W6" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W6">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X6" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X6">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y6" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y6">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z6">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA6">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB6">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC6">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD6">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE6">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF6">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG6">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH6">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI6" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI6">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -66684,7 +66627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -67359,125 +67302,125 @@
         <f>'Max Biofuel Blends'!E$11</f>
         <v>0</v>
       </c>
-      <c r="F7" t="e">
+      <c r="F7">
         <f>'Max Biofuel Blends'!F$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e">
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="G7">
         <f>'Max Biofuel Blends'!G$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H7" t="e">
+        <v>1.9999999999996021E-2</v>
+      </c>
+      <c r="H7">
         <f>'Max Biofuel Blends'!H$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I7" t="e">
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="I7">
         <f>'Max Biofuel Blends'!I$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J7" t="e">
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="J7">
         <f>'Max Biofuel Blends'!J$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>4.9999999999997158E-2</v>
+      </c>
+      <c r="K7">
         <f>'Max Biofuel Blends'!K$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>5.9999999999998721E-2</v>
+      </c>
+      <c r="L7">
         <f>'Max Biofuel Blends'!L$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>6.9999999999996732E-2</v>
+      </c>
+      <c r="M7">
         <f>'Max Biofuel Blends'!M$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>7.9999999999998295E-2</v>
+      </c>
+      <c r="N7">
         <f>'Max Biofuel Blends'!N$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" t="e">
+        <v>8.9999999999996305E-2</v>
+      </c>
+      <c r="O7">
         <f>'Max Biofuel Blends'!O$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" t="e">
+        <v>9.9999999999997868E-2</v>
+      </c>
+      <c r="P7">
         <f>'Max Biofuel Blends'!P$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" t="e">
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="Q7">
         <f>'Max Biofuel Blends'!Q$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" t="e">
+        <v>0.11999999999999744</v>
+      </c>
+      <c r="R7">
         <f>'Max Biofuel Blends'!R$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" t="e">
+        <v>0.12999999999999901</v>
+      </c>
+      <c r="S7">
         <f>'Max Biofuel Blends'!S$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T7" t="e">
+        <v>0.13999999999999702</v>
+      </c>
+      <c r="T7">
         <f>'Max Biofuel Blends'!T$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U7" t="e">
+        <v>0.14999999999999858</v>
+      </c>
+      <c r="U7">
         <f>'Max Biofuel Blends'!U$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V7" t="e">
+        <v>0.15999999999999659</v>
+      </c>
+      <c r="V7">
         <f>'Max Biofuel Blends'!V$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="W7" t="e">
+        <v>0.16999999999999815</v>
+      </c>
+      <c r="W7">
         <f>'Max Biofuel Blends'!W$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="X7" t="e">
+        <v>0.17999999999999616</v>
+      </c>
+      <c r="X7">
         <f>'Max Biofuel Blends'!X$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Y7" t="e">
+        <v>0.18999999999999773</v>
+      </c>
+      <c r="Y7">
         <f>'Max Biofuel Blends'!Y$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="Z7">
         <f>'Max Biofuel Blends'!Z$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AA7">
         <f>'Max Biofuel Blends'!AA$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AB7">
         <f>'Max Biofuel Blends'!AB$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AC7">
         <f>'Max Biofuel Blends'!AC$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AD7">
         <f>'Max Biofuel Blends'!AD$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AE7">
         <f>'Max Biofuel Blends'!AE$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AF7">
         <f>'Max Biofuel Blends'!AF$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AG7">
         <f>'Max Biofuel Blends'!AG$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AH7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AH7">
         <f>'Max Biofuel Blends'!AH$11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI7" t="e">
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="AI7">
         <f>'Max Biofuel Blends'!AI$11</f>
-        <v>#VALUE!</v>
+        <v>0.19999999999999929</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -67914,7 +67857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -69178,7 +69121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -70374,7 +70317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -70389,7 +70332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -71618,7 +71561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -72847,7 +72790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -74111,7 +74054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -75377,7 +75320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -76641,7 +76584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -77870,7 +77813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -79099,7 +79042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -79114,7 +79057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -80381,7 +80324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -81610,7 +81553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -82839,7 +82782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -84103,7 +84046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -85367,7 +85310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -86631,7 +86574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -87860,7 +87803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -89089,7 +89032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>

--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\trans\MPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D0B993B-29A4-42FC-B1B3-7D4A8198FF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FBF57E-9E0A-4861-96FF-003F2EEA3BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="8870" windowHeight="7455" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="74">
   <si>
     <t>Sources:</t>
   </si>
@@ -365,9 +365,6 @@
   <si>
     <t>We use a 100% maximum value to represent drop-in biofuel replacements.</t>
   </si>
-  <si>
-    <t>Nevada</t>
-  </si>
 </sst>
 </file>
 
@@ -501,7 +498,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -517,7 +514,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -830,29 +826,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A53" sqref="A53:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.26953125" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="9">
-        <v>45450</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,285 +850,285 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>44317</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -1161,12 +1151,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -1276,7 +1266,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1386,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1496,7 +1486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1606,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1716,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1826,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1936,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2046,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2156,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2266,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2390,7 +2380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2405,12 +2395,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -2520,7 +2510,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2740,7 +2730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2960,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3070,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3180,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3290,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3400,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3510,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3634,12 +3624,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -3749,7 +3739,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3859,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3969,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4079,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4189,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4299,7 +4289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4409,7 +4399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4519,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -4629,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -4739,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4865,12 +4855,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -4980,7 +4970,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5090,7 +5080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5200,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5310,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5420,7 +5410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5565,7 +5555,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5675,7 +5665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5785,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -5895,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -6005,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -6131,12 +6121,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -6246,7 +6236,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6356,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6466,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6576,7 +6566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6686,7 +6676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6796,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6941,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7051,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -7161,7 +7151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -7271,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7397,12 +7387,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -7512,7 +7502,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7622,7 +7612,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7732,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7842,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7952,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8097,7 +8087,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8207,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8317,7 +8307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8427,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -8537,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -8661,12 +8651,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -8776,7 +8766,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8886,7 +8876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8996,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9106,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9216,7 +9206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -9326,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9436,7 +9426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9546,7 +9536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -9656,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -9766,7 +9756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -9890,12 +9880,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -10005,7 +9995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10115,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10225,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10335,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10445,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10555,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10665,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10775,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -10885,7 +10875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -10995,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -11119,7 +11109,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11133,17 +11123,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.15</v>
       </c>
@@ -11151,7 +11141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11159,12 +11149,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -11172,7 +11162,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11180,12 +11170,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -11193,7 +11183,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11201,12 +11191,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -11313,7 +11303,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -11449,11 +11439,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -11560,7 +11550,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -11696,17 +11686,17 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
     </row>
@@ -11725,12 +11715,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -11840,7 +11830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11950,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -12060,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12170,7 +12160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12280,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12390,7 +12380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12500,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12610,7 +12600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -12720,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -12830,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12954,12 +12944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -13069,7 +13059,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13179,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13289,7 +13279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13399,7 +13389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -13509,7 +13499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -13619,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13729,7 +13719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13839,7 +13829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -13949,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -14059,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -14185,12 +14175,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -14300,7 +14290,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14410,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -14520,7 +14510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14630,7 +14620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14740,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -14885,7 +14875,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14995,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15105,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -15215,7 +15205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -15325,7 +15315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -15451,12 +15441,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -15566,7 +15556,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15676,7 +15666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -15786,7 +15776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -15896,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -16006,7 +15996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -16116,7 +16106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -16261,7 +16251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16371,7 +16361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -16481,7 +16471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -16591,7 +16581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -16717,12 +16707,12 @@
       <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -16832,7 +16822,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16942,7 +16932,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -17052,7 +17042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -17162,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -17272,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -17382,7 +17372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -17527,7 +17517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17637,7 +17627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -17747,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -17857,7 +17847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -17981,12 +17971,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -18096,7 +18086,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18206,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18316,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -18426,7 +18416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18536,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18646,7 +18636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -18756,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -18866,7 +18856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -18976,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -19086,7 +19076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -19210,12 +19200,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -19325,7 +19315,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19435,7 +19425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19545,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -19655,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -19765,7 +19755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -19875,7 +19865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -19985,7 +19975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -20095,7 +20085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -20205,7 +20195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -20315,7 +20305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -20439,7 +20429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20454,12 +20444,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -20569,7 +20559,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20679,7 +20669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20789,7 +20779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -20899,7 +20889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -21009,7 +20999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -21119,7 +21109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -21229,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -21339,7 +21329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -21449,7 +21439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -21559,7 +21549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -21683,12 +21673,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -21798,7 +21788,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21908,7 +21898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -22018,7 +22008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -22128,7 +22118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22238,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -22348,7 +22338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -22458,7 +22448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -22568,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -22678,7 +22668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -22788,7 +22778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -22912,7 +22902,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22929,12 +22919,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -23044,7 +23034,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23154,7 +23144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -23264,7 +23254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -23374,7 +23364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -23484,7 +23474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -23629,7 +23619,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -23739,7 +23729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -23849,7 +23839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -23959,7 +23949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -24069,7 +24059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -24195,12 +24185,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -24310,7 +24300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -24420,7 +24410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -24530,7 +24520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -24640,7 +24630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24750,7 +24740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -24860,7 +24850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -25005,7 +24995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -25115,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -25225,7 +25215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -25335,7 +25325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -25461,12 +25451,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -25576,7 +25566,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -25686,7 +25676,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -25796,7 +25786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -25906,7 +25896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -26016,7 +26006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -26126,7 +26116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26271,7 +26261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -26381,7 +26371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -26491,7 +26481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -26601,7 +26591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -26725,12 +26715,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -26840,7 +26830,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -26950,7 +26940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -27060,7 +27050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -27170,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27280,7 +27270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -27390,7 +27380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -27500,7 +27490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -27610,7 +27600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -27720,7 +27710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -27830,7 +27820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -27954,12 +27944,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -28069,7 +28059,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28179,7 +28169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -28289,7 +28279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -28399,7 +28389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -28509,7 +28499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -28619,7 +28609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -28729,7 +28719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -28839,7 +28829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -28949,7 +28939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -29059,7 +29049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -29183,7 +29173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29198,12 +29188,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -29310,7 +29300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29417,7 +29407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -29524,7 +29514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -29631,7 +29621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -29738,7 +29728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -29845,7 +29835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -29952,7 +29942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -30059,7 +30049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -30166,7 +30156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -30273,7 +30263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -30394,12 +30384,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -30506,7 +30496,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -30613,7 +30603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -30720,7 +30710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -30827,7 +30817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -30934,7 +30924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -31041,7 +31031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -31148,7 +31138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -31255,7 +31245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -31362,7 +31352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -31469,7 +31459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -31592,12 +31582,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -31704,7 +31694,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31811,7 +31801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -31918,7 +31908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -32025,7 +32015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32132,7 +32122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -32273,7 +32263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -32380,7 +32370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -32487,7 +32477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -32594,7 +32584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -32701,7 +32691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -32824,12 +32814,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -32936,7 +32926,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -33043,7 +33033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -33150,7 +33140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -33257,7 +33247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -33364,7 +33354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -33471,7 +33461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -33612,7 +33602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -33719,7 +33709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -33826,7 +33816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -33933,7 +33923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -34054,12 +34044,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -34169,7 +34159,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -34279,7 +34269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -34389,7 +34379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -34499,7 +34489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -34609,7 +34599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -34719,7 +34709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -34829,7 +34819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -34939,7 +34929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -35049,7 +35039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -35159,7 +35149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -35283,12 +35273,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -35395,7 +35385,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -35502,7 +35492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -35609,7 +35599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -35716,7 +35706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -35823,7 +35813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -35930,7 +35920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -36037,7 +36027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -36144,7 +36134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -36251,7 +36241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -36358,7 +36348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -36479,7 +36469,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36494,12 +36484,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -36606,7 +36596,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -36713,7 +36703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -36820,7 +36810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -36927,7 +36917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -37034,7 +37024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -37141,7 +37131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -37248,7 +37238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -37355,7 +37345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -37462,7 +37452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -37569,7 +37559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -37690,12 +37680,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -37802,7 +37792,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -37909,7 +37899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -38016,7 +38006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -38123,7 +38113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -38230,7 +38220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -38337,7 +38327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -38444,7 +38434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -38551,7 +38541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -38658,7 +38648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -38765,7 +38755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -38886,12 +38876,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -38998,7 +38988,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -39105,7 +39095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -39212,7 +39202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -39319,7 +39309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -39426,7 +39416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -39567,7 +39557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -39674,7 +39664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -39781,7 +39771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -39888,7 +39878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -39995,7 +39985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -40116,12 +40106,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -40228,7 +40218,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -40335,7 +40325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -40442,7 +40432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -40549,7 +40539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -40656,7 +40646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -40763,7 +40753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -40904,7 +40894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -41011,7 +41001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -41118,7 +41108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -41225,7 +41215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -41346,12 +41336,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -41458,7 +41448,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -41565,7 +41555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -41672,7 +41662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -41779,7 +41769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -41886,7 +41876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -41993,7 +41983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -42100,7 +42090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -42207,7 +42197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -42314,7 +42304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -42421,7 +42411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -42542,7 +42532,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42557,12 +42547,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -42669,7 +42659,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -42776,7 +42766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -42883,7 +42873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -42990,7 +42980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -43097,7 +43087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -43204,7 +43194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -43311,7 +43301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -43418,7 +43408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -43525,7 +43515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -43632,7 +43622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -43753,12 +43743,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -43865,7 +43855,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -43972,7 +43962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -44079,7 +44069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -44186,7 +44176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -44293,7 +44283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -44400,7 +44390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -44507,7 +44497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -44614,7 +44604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -44721,7 +44711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -44828,7 +44818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -44949,12 +44939,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -45064,7 +45054,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -45174,7 +45164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -45284,7 +45274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -45394,7 +45384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -45504,7 +45494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -45614,7 +45604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -45724,7 +45714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -45834,7 +45824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -45944,7 +45934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -46054,7 +46044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -46178,12 +46168,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -46290,7 +46280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -46397,7 +46387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -46504,7 +46494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -46611,7 +46601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -46718,7 +46708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -46859,7 +46849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -46966,7 +46956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -47073,7 +47063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -47180,7 +47170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -47287,7 +47277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -47408,12 +47398,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -47520,7 +47510,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -47627,7 +47617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -47734,7 +47724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -47841,7 +47831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -47948,7 +47938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -48055,7 +48045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -48196,7 +48186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -48303,7 +48293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -48410,7 +48400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -48517,7 +48507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -48638,12 +48628,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -48750,7 +48740,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -48857,7 +48847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -48964,7 +48954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -49071,7 +49061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -49178,7 +49168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -49285,7 +49275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -49392,7 +49382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -49499,7 +49489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -49606,7 +49596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -49713,7 +49703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -49834,7 +49824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49849,12 +49839,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -49961,7 +49951,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -50068,7 +50058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -50175,7 +50165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -50282,7 +50272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -50389,7 +50379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -50496,7 +50486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -50603,7 +50593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -50710,7 +50700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -50817,7 +50807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -50924,7 +50914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -51045,12 +51035,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -51157,7 +51147,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -51264,7 +51254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -51371,7 +51361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -51478,7 +51468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -51585,7 +51575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -51692,7 +51682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -51799,7 +51789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -51906,7 +51896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -52013,7 +52003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -52120,7 +52110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -52241,12 +52231,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -52353,7 +52343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -52460,7 +52450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -52567,7 +52557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -52674,7 +52664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -52781,7 +52771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -52922,7 +52912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -53029,7 +53019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -53136,7 +53126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -53243,7 +53233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -53350,7 +53340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -53471,12 +53461,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -53583,7 +53573,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -53690,7 +53680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -53797,7 +53787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -53904,7 +53894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -54011,7 +54001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -54118,7 +54108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -54259,7 +54249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -54366,7 +54356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -54473,7 +54463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -54580,7 +54570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -54701,12 +54691,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -54813,7 +54803,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -54920,7 +54910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -55027,7 +55017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -55134,7 +55124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -55241,7 +55231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -55348,7 +55338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -55455,7 +55445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -55562,7 +55552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -55669,7 +55659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -55776,7 +55766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -55897,7 +55887,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55914,12 +55904,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -56029,7 +56019,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -56139,7 +56129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -56249,7 +56239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -56359,7 +56349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -56469,7 +56459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -56614,7 +56604,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -56724,7 +56714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -56834,7 +56824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -56944,7 +56934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -57054,7 +57044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -57178,12 +57168,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -57290,7 +57280,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -57397,7 +57387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -57504,7 +57494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -57611,7 +57601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -57718,7 +57708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -57825,7 +57815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -57932,7 +57922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -58039,7 +58029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -58146,7 +58136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -58253,7 +58243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -58374,12 +58364,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -58486,7 +58476,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -58593,7 +58583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -58700,7 +58690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -58807,7 +58797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -58914,7 +58904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -59021,7 +59011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -59128,7 +59118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -59235,7 +59225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -59342,7 +59332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -59449,7 +59439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -59570,12 +59560,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -59682,7 +59672,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -59789,7 +59779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -59896,7 +59886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -60003,7 +59993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -60110,7 +60100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -60251,7 +60241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -60358,7 +60348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -60465,7 +60455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -60572,7 +60562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -60679,7 +60669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -60800,12 +60790,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -60912,7 +60902,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -61019,7 +61009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -61126,7 +61116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -61233,7 +61223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -61340,7 +61330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -61447,7 +61437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -61588,7 +61578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -61695,7 +61685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -61802,7 +61792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -61909,7 +61899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -62030,12 +62020,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -62142,7 +62132,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -62249,7 +62239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -62356,7 +62346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -62463,7 +62453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -62570,7 +62560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -62677,7 +62667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -62784,7 +62774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -62891,7 +62881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -62998,7 +62988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -63105,7 +63095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -63226,7 +63216,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63241,12 +63231,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -63353,7 +63343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -63460,7 +63450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -63567,7 +63557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -63674,7 +63664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -63781,7 +63771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -63888,7 +63878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -63995,7 +63985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -64102,7 +64092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -64209,7 +64199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -64316,7 +64306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -64437,12 +64427,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -64549,7 +64539,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -64656,7 +64646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -64763,7 +64753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -64870,7 +64860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -64977,7 +64967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -65084,7 +65074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -65191,7 +65181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -65298,7 +65288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -65405,7 +65395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -65512,7 +65502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -65633,12 +65623,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -65745,7 +65735,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -65852,7 +65842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -65959,7 +65949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -66066,7 +66056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -66173,7 +66163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -66314,7 +66304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -66421,7 +66411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -66528,7 +66518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -66635,7 +66625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -66742,7 +66732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -66865,12 +66855,12 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -66977,7 +66967,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -67084,7 +67074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -67191,7 +67181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -67298,7 +67288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -67405,7 +67395,7 @@
         <v>0.42991564609237387</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -67512,7 +67502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -67653,7 +67643,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -67760,7 +67750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -67867,7 +67857,7 @@
         <v>0.57008435390762602</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -67974,7 +67964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -68097,12 +68087,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -68212,7 +68202,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -68322,7 +68312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -68432,7 +68422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -68542,7 +68532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -68652,7 +68642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -68762,7 +68752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -68872,7 +68862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -68982,7 +68972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -69092,7 +69082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -69202,7 +69192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -69326,12 +69316,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -69438,7 +69428,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -69545,7 +69535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -69652,7 +69642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -69759,7 +69749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -69866,7 +69856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -69973,7 +69963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -70080,7 +70070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -70187,7 +70177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -70294,7 +70284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -70401,7 +70391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -70522,7 +70512,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70537,12 +70527,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -70652,7 +70642,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -70762,7 +70752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -70872,7 +70862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -70982,7 +70972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -71092,7 +71082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -71202,7 +71192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -71312,7 +71302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -71422,7 +71412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -71532,7 +71522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -71642,7 +71632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -71766,12 +71756,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -71881,7 +71871,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -71991,7 +71981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -72101,7 +72091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -72211,7 +72201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -72321,7 +72311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -72431,7 +72421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -72541,7 +72531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -72651,7 +72641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -72761,7 +72751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -72871,7 +72861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -72997,12 +72987,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -73112,7 +73102,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -73222,7 +73212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -73332,7 +73322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -73442,7 +73432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -73552,7 +73542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -73662,7 +73652,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -73772,7 +73762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -73882,7 +73872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -73992,7 +73982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -74102,7 +74092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -74228,12 +74218,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -74343,7 +74333,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -74453,7 +74443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -74563,7 +74553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -74673,7 +74663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -74783,7 +74773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -74893,7 +74883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -75003,7 +74993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -75113,7 +75103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -75223,7 +75213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -75333,7 +75323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -75459,12 +75449,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -75574,7 +75564,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -75684,7 +75674,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -75794,7 +75784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -75904,7 +75894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -76014,7 +76004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -76124,7 +76114,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -76234,7 +76224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -76344,7 +76334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -76454,7 +76444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -76564,7 +76554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -76688,12 +76678,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -76803,7 +76793,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -76913,7 +76903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -77023,7 +77013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -77133,7 +77123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -77243,7 +77233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -77353,7 +77343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -77463,7 +77453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -77573,7 +77563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -77683,7 +77673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -77793,7 +77783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -77917,12 +77907,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -78032,7 +78022,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -78142,7 +78132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -78252,7 +78242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -78362,7 +78352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -78472,7 +78462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -78582,7 +78572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -78692,7 +78682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -78802,7 +78792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -78912,7 +78902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -79022,7 +79012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -79146,7 +79136,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79163,12 +79153,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -79278,7 +79268,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -79388,7 +79378,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -79498,7 +79488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -79608,7 +79598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -79718,7 +79708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -79863,7 +79853,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -79973,7 +79963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -80083,7 +80073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -80193,7 +80183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -80303,7 +80293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -80430,12 +80420,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -80545,7 +80535,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -80655,7 +80645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -80765,7 +80755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -80875,7 +80865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -80985,7 +80975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -81095,7 +81085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -81205,7 +81195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -81315,7 +81305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -81425,7 +81415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -81535,7 +81525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -81659,12 +81649,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -81774,7 +81764,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -81884,7 +81874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -81994,7 +81984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -82104,7 +82094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -82214,7 +82204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -82324,7 +82314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -82434,7 +82424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -82544,7 +82534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -82654,7 +82644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -82764,7 +82754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -82890,12 +82880,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -83005,7 +82995,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -83115,7 +83105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -83225,7 +83215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -83335,7 +83325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -83445,7 +83435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -83590,7 +83580,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -83700,7 +83690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -83810,7 +83800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -83920,7 +83910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -84030,7 +84020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -84156,12 +84146,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -84271,7 +84261,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -84381,7 +84371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -84491,7 +84481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -84601,7 +84591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -84711,7 +84701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -84821,7 +84811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -84966,7 +84956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -85076,7 +85066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -85186,7 +85176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -85296,7 +85286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -85422,12 +85412,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -85537,7 +85527,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -85647,7 +85637,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -85757,7 +85747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -85867,7 +85857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -85977,7 +85967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -86122,7 +86112,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -86232,7 +86222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -86342,7 +86332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -86452,7 +86442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -86562,7 +86552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -86686,12 +86676,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -86801,7 +86791,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -86911,7 +86901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -87021,7 +87011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -87131,7 +87121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -87241,7 +87231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -87351,7 +87341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -87461,7 +87451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -87571,7 +87561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -87681,7 +87671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -87791,7 +87781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -87915,12 +87905,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -88030,7 +88020,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -88140,7 +88130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -88250,7 +88240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -88360,7 +88350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -88470,7 +88460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -88580,7 +88570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -88690,7 +88680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -88800,7 +88790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -88910,7 +88900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -89020,7 +89010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -89144,12 +89134,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -89259,7 +89249,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -89369,7 +89359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -89479,7 +89469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -89589,7 +89579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -89699,7 +89689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -89809,7 +89799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -89919,7 +89909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -90029,7 +90019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -90139,7 +90129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -90249,7 +90239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>

--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\MPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FBF57E-9E0A-4861-96FF-003F2EEA3BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D0B993B-29A4-42FC-B1B3-7D4A8198FF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="8870" windowHeight="7455" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="75">
   <si>
     <t>Sources:</t>
   </si>
@@ -365,6 +365,9 @@
   <si>
     <t>We use a 100% maximum value to represent drop-in biofuel replacements.</t>
   </si>
+  <si>
+    <t>Nevada</t>
+  </si>
 </sst>
 </file>
 
@@ -498,7 +501,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -514,6 +517,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -826,23 +830,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A53" sqref="A53:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="2" max="2" width="69.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="9">
+        <v>45450</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,285 +860,285 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B5" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="B16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B18" s="7">
         <v>44317</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B20" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B21" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B25" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B26" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B27" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A54" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A61" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A62" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A64" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A70" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A72" t="s">
         <v>66</v>
       </c>
@@ -1151,12 +1161,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -1266,7 +1276,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1376,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1596,7 +1606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1706,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +1826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1926,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2036,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2146,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2256,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2380,7 +2390,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2395,12 +2405,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -2510,7 +2520,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2620,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2730,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2840,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2950,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3060,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3170,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3280,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -3390,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3500,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3624,12 +3634,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -3739,7 +3749,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3849,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3959,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4069,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -4179,7 +4189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -4289,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -4399,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4509,7 +4519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -4619,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -4729,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -4855,12 +4865,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -4970,7 +4980,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5080,7 +5090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5190,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5300,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5410,7 +5420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5555,7 +5565,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5665,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -5775,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -5885,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -5995,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -6121,12 +6131,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -6236,7 +6246,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6346,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6456,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6566,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -6676,7 +6686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6786,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -6931,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -7041,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -7151,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -7261,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -7387,12 +7397,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -7502,7 +7512,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7612,7 +7622,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7722,7 +7732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7832,7 +7842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7942,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8087,7 +8097,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8197,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8307,7 +8317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -8417,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -8527,7 +8537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -8651,12 +8661,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -8766,7 +8776,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8876,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -8986,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -9096,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -9206,7 +9216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -9316,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9426,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9536,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -9646,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -9756,7 +9766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -9880,12 +9890,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -9995,7 +10005,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10105,7 +10115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -10215,7 +10225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -10325,7 +10335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10435,7 +10445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -10545,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10655,7 +10665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -10765,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -10875,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -10985,7 +10995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -11109,7 +11119,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11123,17 +11133,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.40625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>0.15</v>
       </c>
@@ -11141,7 +11151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11149,12 +11159,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>2020</v>
       </c>
@@ -11162,7 +11172,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>0</v>
       </c>
@@ -11170,12 +11180,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -11183,7 +11193,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>0</v>
       </c>
@@ -11191,12 +11201,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A13">
         <v>2016</v>
       </c>
@@ -11303,7 +11313,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A14">
         <v>0</v>
       </c>
@@ -11439,11 +11449,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.75">
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A16">
         <v>2016</v>
       </c>
@@ -11550,7 +11560,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A17">
         <v>0</v>
       </c>
@@ -11686,17 +11696,17 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
     </row>
@@ -11715,12 +11725,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -11830,7 +11840,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11940,7 +11950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -12050,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -12160,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12270,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12380,7 +12390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12490,7 +12500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12600,7 +12610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -12710,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -12820,7 +12830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -12944,12 +12954,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -13059,7 +13069,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -13169,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -13279,7 +13289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -13389,7 +13399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -13499,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -13609,7 +13619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -13719,7 +13729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -13829,7 +13839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -13939,7 +13949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -14049,7 +14059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -14175,12 +14185,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -14290,7 +14300,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14400,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -14510,7 +14520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -14620,7 +14630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14730,7 +14740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -14875,7 +14885,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14985,7 +14995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -15095,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -15205,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -15315,7 +15325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -15441,12 +15451,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -15556,7 +15566,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -15666,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -15776,7 +15786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -15886,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -15996,7 +16006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -16106,7 +16116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -16251,7 +16261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -16361,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -16471,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -16581,7 +16591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -16707,12 +16717,12 @@
       <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -16822,7 +16832,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -16932,7 +16942,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -17042,7 +17052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -17152,7 +17162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -17262,7 +17272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -17372,7 +17382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -17517,7 +17527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -17627,7 +17637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -17737,7 +17747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -17847,7 +17857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -17971,12 +17981,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -18086,7 +18096,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -18196,7 +18206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -18306,7 +18316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -18416,7 +18426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -18526,7 +18536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18636,7 +18646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -18746,7 +18756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -18856,7 +18866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -18966,7 +18976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -19076,7 +19086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -19200,12 +19210,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -19315,7 +19325,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19425,7 +19435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -19535,7 +19545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -19645,7 +19655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -19755,7 +19765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -19865,7 +19875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -19975,7 +19985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -20085,7 +20095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -20195,7 +20205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -20305,7 +20315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -20429,7 +20439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20444,12 +20454,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -20559,7 +20569,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -20669,7 +20679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -20779,7 +20789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -20889,7 +20899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -20999,7 +21009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -21109,7 +21119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -21219,7 +21229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -21329,7 +21339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -21439,7 +21449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -21549,7 +21559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -21673,12 +21683,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -21788,7 +21798,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -21898,7 +21908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -22008,7 +22018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -22118,7 +22128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -22228,7 +22238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -22338,7 +22348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -22448,7 +22458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -22558,7 +22568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -22668,7 +22678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -22778,7 +22788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -22902,7 +22912,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22919,12 +22929,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -23034,7 +23044,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -23144,7 +23154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -23254,7 +23264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -23364,7 +23374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -23474,7 +23484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -23619,7 +23629,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -23729,7 +23739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -23839,7 +23849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -23949,7 +23959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -24059,7 +24069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -24185,12 +24195,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -24300,7 +24310,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -24410,7 +24420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -24520,7 +24530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -24630,7 +24640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -24740,7 +24750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -24850,7 +24860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -24995,7 +25005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -25105,7 +25115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -25215,7 +25225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -25325,7 +25335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -25451,12 +25461,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -25566,7 +25576,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -25676,7 +25686,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -25786,7 +25796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -25896,7 +25906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -26006,7 +26016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -26116,7 +26126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -26261,7 +26271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -26371,7 +26381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -26481,7 +26491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -26591,7 +26601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -26715,12 +26725,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -26830,7 +26840,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -26940,7 +26950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -27050,7 +27060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -27160,7 +27170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27270,7 +27280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -27380,7 +27390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -27490,7 +27500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -27600,7 +27610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -27710,7 +27720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -27820,7 +27830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -27944,12 +27954,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -28059,7 +28069,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -28169,7 +28179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -28279,7 +28289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -28389,7 +28399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -28499,7 +28509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -28609,7 +28619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -28719,7 +28729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -28829,7 +28839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -28939,7 +28949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -29049,7 +29059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -29173,7 +29183,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29188,12 +29198,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -29300,7 +29310,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -29407,7 +29417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -29514,7 +29524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -29621,7 +29631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -29728,7 +29738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -29835,7 +29845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -29942,7 +29952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -30049,7 +30059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -30156,7 +30166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -30263,7 +30273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -30384,12 +30394,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -30496,7 +30506,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -30603,7 +30613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -30710,7 +30720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -30817,7 +30827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -30924,7 +30934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -31031,7 +31041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -31138,7 +31148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -31245,7 +31255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -31352,7 +31362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -31459,7 +31469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -31582,12 +31592,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -31694,7 +31704,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -31801,7 +31811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -31908,7 +31918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -32015,7 +32025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32122,7 +32132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -32263,7 +32273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -32370,7 +32380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -32477,7 +32487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -32584,7 +32594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -32691,7 +32701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -32814,12 +32824,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -32926,7 +32936,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -33033,7 +33043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -33140,7 +33150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -33247,7 +33257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -33354,7 +33364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -33461,7 +33471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -33602,7 +33612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -33709,7 +33719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -33816,7 +33826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -33923,7 +33933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -34044,12 +34054,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -34159,7 +34169,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -34269,7 +34279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -34379,7 +34389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -34489,7 +34499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -34599,7 +34609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -34709,7 +34719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -34819,7 +34829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -34929,7 +34939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -35039,7 +35049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -35149,7 +35159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -35273,12 +35283,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -35385,7 +35395,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -35492,7 +35502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -35599,7 +35609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -35706,7 +35716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -35813,7 +35823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -35920,7 +35930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -36027,7 +36037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -36134,7 +36144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -36241,7 +36251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -36348,7 +36358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -36469,7 +36479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36484,12 +36494,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -36596,7 +36606,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -36703,7 +36713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -36810,7 +36820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -36917,7 +36927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -37024,7 +37034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -37131,7 +37141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -37238,7 +37248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -37345,7 +37355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -37452,7 +37462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -37559,7 +37569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -37680,12 +37690,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -37792,7 +37802,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -37899,7 +37909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -38006,7 +38016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -38113,7 +38123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -38220,7 +38230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -38327,7 +38337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -38434,7 +38444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -38541,7 +38551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -38648,7 +38658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -38755,7 +38765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -38876,12 +38886,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -38988,7 +38998,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -39095,7 +39105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -39202,7 +39212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -39309,7 +39319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -39416,7 +39426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -39557,7 +39567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -39664,7 +39674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -39771,7 +39781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -39878,7 +39888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -39985,7 +39995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -40106,12 +40116,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -40218,7 +40228,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -40325,7 +40335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -40432,7 +40442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -40539,7 +40549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -40646,7 +40656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -40753,7 +40763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -40894,7 +40904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -41001,7 +41011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -41108,7 +41118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -41215,7 +41225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -41336,12 +41346,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -41448,7 +41458,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -41555,7 +41565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -41662,7 +41672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -41769,7 +41779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -41876,7 +41886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -41983,7 +41993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -42090,7 +42100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -42197,7 +42207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -42304,7 +42314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -42411,7 +42421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -42532,7 +42542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42547,12 +42557,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -42659,7 +42669,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -42766,7 +42776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -42873,7 +42883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -42980,7 +42990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -43087,7 +43097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -43194,7 +43204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -43301,7 +43311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -43408,7 +43418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -43515,7 +43525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -43622,7 +43632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -43743,12 +43753,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -43855,7 +43865,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -43962,7 +43972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -44069,7 +44079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -44176,7 +44186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -44283,7 +44293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -44390,7 +44400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -44497,7 +44507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -44604,7 +44614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -44711,7 +44721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -44818,7 +44828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -44939,12 +44949,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -45054,7 +45064,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -45164,7 +45174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -45274,7 +45284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -45384,7 +45394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -45494,7 +45504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -45604,7 +45614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -45714,7 +45724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -45824,7 +45834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -45934,7 +45944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -46044,7 +46054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -46168,12 +46178,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -46280,7 +46290,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -46387,7 +46397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -46494,7 +46504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -46601,7 +46611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -46708,7 +46718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -46849,7 +46859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -46956,7 +46966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -47063,7 +47073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -47170,7 +47180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -47277,7 +47287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -47398,12 +47408,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -47510,7 +47520,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -47617,7 +47627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -47724,7 +47734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -47831,7 +47841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -47938,7 +47948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -48045,7 +48055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -48186,7 +48196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -48293,7 +48303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -48400,7 +48410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -48507,7 +48517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -48628,12 +48638,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -48740,7 +48750,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -48847,7 +48857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -48954,7 +48964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -49061,7 +49071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -49168,7 +49178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -49275,7 +49285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -49382,7 +49392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -49489,7 +49499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -49596,7 +49606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -49703,7 +49713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -49824,7 +49834,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -49839,12 +49849,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -49951,7 +49961,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -50058,7 +50068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -50165,7 +50175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -50272,7 +50282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -50379,7 +50389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -50486,7 +50496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -50593,7 +50603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -50700,7 +50710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -50807,7 +50817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -50914,7 +50924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -51035,12 +51045,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -51147,7 +51157,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -51254,7 +51264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -51361,7 +51371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -51468,7 +51478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -51575,7 +51585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -51682,7 +51692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -51789,7 +51799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -51896,7 +51906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -52003,7 +52013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -52110,7 +52120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -52231,12 +52241,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -52343,7 +52353,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -52450,7 +52460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -52557,7 +52567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -52664,7 +52674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -52771,7 +52781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -52912,7 +52922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -53019,7 +53029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -53126,7 +53136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -53233,7 +53243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -53340,7 +53350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -53461,12 +53471,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -53573,7 +53583,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -53680,7 +53690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -53787,7 +53797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -53894,7 +53904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -54001,7 +54011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -54108,7 +54118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -54249,7 +54259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -54356,7 +54366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -54463,7 +54473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -54570,7 +54580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -54691,12 +54701,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -54803,7 +54813,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -54910,7 +54920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -55017,7 +55027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -55124,7 +55134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -55231,7 +55241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -55338,7 +55348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -55445,7 +55455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -55552,7 +55562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -55659,7 +55669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -55766,7 +55776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -55887,7 +55897,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55904,12 +55914,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -56019,7 +56029,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -56129,7 +56139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -56239,7 +56249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -56349,7 +56359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -56459,7 +56469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -56604,7 +56614,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -56714,7 +56724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -56824,7 +56834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -56934,7 +56944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -57044,7 +57054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -57168,12 +57178,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -57280,7 +57290,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -57387,7 +57397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -57494,7 +57504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -57601,7 +57611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -57708,7 +57718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -57815,7 +57825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -57922,7 +57932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -58029,7 +58039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -58136,7 +58146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -58243,7 +58253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -58364,12 +58374,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -58476,7 +58486,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -58583,7 +58593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -58690,7 +58700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -58797,7 +58807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -58904,7 +58914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -59011,7 +59021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -59118,7 +59128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -59225,7 +59235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -59332,7 +59342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -59439,7 +59449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -59560,12 +59570,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -59672,7 +59682,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -59779,7 +59789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -59886,7 +59896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -59993,7 +60003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -60100,7 +60110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -60241,7 +60251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -60348,7 +60358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -60455,7 +60465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -60562,7 +60572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -60669,7 +60679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -60790,12 +60800,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -60902,7 +60912,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -61009,7 +61019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -61116,7 +61126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -61223,7 +61233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -61330,7 +61340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -61437,7 +61447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -61578,7 +61588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -61685,7 +61695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -61792,7 +61802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -61899,7 +61909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -62020,12 +62030,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -62132,7 +62142,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -62239,7 +62249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -62346,7 +62356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -62453,7 +62463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -62560,7 +62570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -62667,7 +62677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -62774,7 +62784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -62881,7 +62891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -62988,7 +62998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -63095,7 +63105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -63216,7 +63226,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -63231,12 +63241,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -63343,7 +63353,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -63450,7 +63460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -63557,7 +63567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -63664,7 +63674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -63771,7 +63781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -63878,7 +63888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -63985,7 +63995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -64092,7 +64102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -64199,7 +64209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -64306,7 +64316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -64427,12 +64437,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -64539,7 +64549,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -64646,7 +64656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -64753,7 +64763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -64860,7 +64870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -64967,7 +64977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -65074,7 +65084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -65181,7 +65191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -65288,7 +65298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -65395,7 +65405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -65502,7 +65512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -65623,12 +65633,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -65735,7 +65745,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -65842,7 +65852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -65949,7 +65959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -66056,7 +66066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -66163,7 +66173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -66304,7 +66314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -66411,7 +66421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -66518,7 +66528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -66625,7 +66635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -66732,7 +66742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -66855,12 +66865,12 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -66967,7 +66977,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -67074,7 +67084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -67181,7 +67191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -67288,7 +67298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -67395,7 +67405,7 @@
         <v>0.42991564609237387</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -67502,7 +67512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -67643,7 +67653,7 @@
         <v>0.59999999999999432</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -67750,7 +67760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -67857,7 +67867,7 @@
         <v>0.57008435390762602</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -67964,7 +67974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -68087,12 +68097,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -68202,7 +68212,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -68312,7 +68322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -68422,7 +68432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -68532,7 +68542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -68642,7 +68652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -68752,7 +68762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -68862,7 +68872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -68972,7 +68982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -69082,7 +69092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -69192,7 +69202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -69316,12 +69326,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>61</v>
       </c>
@@ -69428,7 +69438,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -69535,7 +69545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -69642,7 +69652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -69749,7 +69759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -69856,7 +69866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -69963,7 +69973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -70070,7 +70080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -70177,7 +70187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -70284,7 +70294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -70391,7 +70401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -70512,7 +70522,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70527,12 +70537,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -70642,7 +70652,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -70752,7 +70762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -70862,7 +70872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -70972,7 +70982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -71082,7 +71092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -71192,7 +71202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -71302,7 +71312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -71412,7 +71422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -71522,7 +71532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -71632,7 +71642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -71756,12 +71766,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -71871,7 +71881,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -71981,7 +71991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -72091,7 +72101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -72201,7 +72211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -72311,7 +72321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -72421,7 +72431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -72531,7 +72541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -72641,7 +72651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -72751,7 +72761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -72861,7 +72871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -72987,12 +72997,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -73102,7 +73112,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -73212,7 +73222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -73322,7 +73332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -73432,7 +73442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -73542,7 +73552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -73652,7 +73662,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -73762,7 +73772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -73872,7 +73882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -73982,7 +73992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -74092,7 +74102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -74218,12 +74228,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -74333,7 +74343,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -74443,7 +74453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -74553,7 +74563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -74663,7 +74673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -74773,7 +74783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -74883,7 +74893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -74993,7 +75003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -75103,7 +75113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -75213,7 +75223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -75323,7 +75333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -75449,12 +75459,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -75564,7 +75574,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -75674,7 +75684,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -75784,7 +75794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -75894,7 +75904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -76004,7 +76014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -76114,7 +76124,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -76224,7 +76234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -76334,7 +76344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -76444,7 +76454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -76554,7 +76564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -76678,12 +76688,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -76793,7 +76803,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -76903,7 +76913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -77013,7 +77023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -77123,7 +77133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -77233,7 +77243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -77343,7 +77353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -77453,7 +77463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -77563,7 +77573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -77673,7 +77683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -77783,7 +77793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -77907,12 +77917,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -78022,7 +78032,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -78132,7 +78142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -78242,7 +78252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -78352,7 +78362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -78462,7 +78472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -78572,7 +78582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -78682,7 +78692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -78792,7 +78802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -78902,7 +78912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -79012,7 +79022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -79136,7 +79146,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -79153,12 +79163,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -79268,7 +79278,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -79378,7 +79388,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -79488,7 +79498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -79598,7 +79608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -79708,7 +79718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -79853,7 +79863,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -79963,7 +79973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -80073,7 +80083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -80183,7 +80193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -80293,7 +80303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -80420,12 +80430,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -80535,7 +80545,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -80645,7 +80655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -80755,7 +80765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -80865,7 +80875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -80975,7 +80985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -81085,7 +81095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -81195,7 +81205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -81305,7 +81315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -81415,7 +81425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -81525,7 +81535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -81649,12 +81659,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -81764,7 +81774,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -81874,7 +81884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -81984,7 +81994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -82094,7 +82104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -82204,7 +82214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -82314,7 +82324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -82424,7 +82434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -82534,7 +82544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -82644,7 +82654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -82754,7 +82764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -82880,12 +82890,12 @@
       <selection activeCell="B6" sqref="B6:AJ6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -82995,7 +83005,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -83105,7 +83115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -83215,7 +83225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -83325,7 +83335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -83435,7 +83445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -83580,7 +83590,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -83690,7 +83700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -83800,7 +83810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -83910,7 +83920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -84020,7 +84030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -84146,12 +84156,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -84261,7 +84271,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -84371,7 +84381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -84481,7 +84491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -84591,7 +84601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -84701,7 +84711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -84811,7 +84821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -84956,7 +84966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -85066,7 +85076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -85176,7 +85186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -85286,7 +85296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -85412,12 +85422,12 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -85527,7 +85537,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -85637,7 +85647,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -85747,7 +85757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -85857,7 +85867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -85967,7 +85977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -86112,7 +86122,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -86222,7 +86232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -86332,7 +86342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -86442,7 +86452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -86552,7 +86562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -86676,12 +86686,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -86791,7 +86801,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -86901,7 +86911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -87011,7 +87021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -87121,7 +87131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -87231,7 +87241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -87341,7 +87351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -87451,7 +87461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -87561,7 +87571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -87671,7 +87681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -87781,7 +87791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -87905,12 +87915,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -88020,7 +88030,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -88130,7 +88140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -88240,7 +88250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -88350,7 +88360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -88460,7 +88470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -88570,7 +88580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -88680,7 +88690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -88790,7 +88800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -88900,7 +88910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -89010,7 +89020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -89134,12 +89144,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="29.5" x14ac:dyDescent="0.75">
       <c r="A1" s="6" t="s">
         <v>60</v>
       </c>
@@ -89249,7 +89259,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -89359,7 +89369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -89469,7 +89479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -89579,7 +89589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -89689,7 +89699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -89799,7 +89809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -89909,7 +89919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -90019,7 +90029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -90129,7 +90139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -90239,7 +90249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>55</v>
       </c>
